--- a/CTC_App/Iteration3/Track_Layout_Red.xlsx
+++ b/CTC_App/Iteration3/Track_Layout_Red.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasse\Desktop\ECE1140\Team_X_ECE_1140\CTC_App\Iteration3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D401C14-19C5-464D-A7C3-0367EEA53E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AB8D9E-0A6F-425E-ABC9-1DA0C0B8066E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8424" yWindow="0" windowWidth="9348" windowHeight="12360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20472" yWindow="-36" windowWidth="4572" windowHeight="11748" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Red Line" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="44">
   <si>
     <t>Line</t>
   </si>
@@ -89,15 +89,9 @@
     <t>G</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
-    <t>J</t>
-  </si>
-  <si>
     <t>K</t>
   </si>
   <si>
@@ -153,13 +147,34 @@
   </si>
   <si>
     <t>SOUTH HILLS JUNCTION L</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>J2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -188,6 +203,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -556,9 +577,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMF152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="B18:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -606,7 +627,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
@@ -635,7 +656,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>10</v>
@@ -836,7 +857,7 @@
         <v>-1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I9" s="2">
         <v>-1</v>
@@ -1106,7 +1127,7 @@
         <v>15</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I18" s="2">
         <v>-1</v>
@@ -1256,7 +1277,7 @@
         <v>-1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I23" s="2">
         <v>-1</v>
@@ -1328,7 +1349,7 @@
         <v>Red</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C26" s="9">
         <v>24</v>
@@ -1358,7 +1379,7 @@
         <v>Red</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C27" s="10">
         <v>25</v>
@@ -1376,7 +1397,7 @@
         <v>-1</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I27" s="2">
         <v>-1</v>
@@ -1388,7 +1409,7 @@
         <v>Red</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C28" s="9">
         <v>26</v>
@@ -1418,7 +1439,7 @@
         <v>Red</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C29" s="10">
         <v>27</v>
@@ -1448,7 +1469,7 @@
         <v>Red</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C30" s="9">
         <v>28</v>
@@ -1478,7 +1499,7 @@
         <v>Red</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C31" s="9">
         <v>29</v>
@@ -1508,7 +1529,7 @@
         <v>Red</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C32" s="10">
         <v>30</v>
@@ -1538,7 +1559,7 @@
         <v>Red</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C33" s="9">
         <v>31</v>
@@ -1568,7 +1589,7 @@
         <v>Red</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C34" s="10">
         <v>32</v>
@@ -1598,7 +1619,7 @@
         <v>Red</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C35" s="9">
         <v>33</v>
@@ -1628,7 +1649,7 @@
         <v>Red</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C36" s="9">
         <v>34</v>
@@ -1658,7 +1679,7 @@
         <v>Red</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C37" s="10">
         <v>35</v>
@@ -1676,7 +1697,7 @@
         <v>-1</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I37" s="2">
         <v>-1</v>
@@ -1688,7 +1709,7 @@
         <v>Red</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C38" s="9">
         <v>36</v>
@@ -1718,7 +1739,7 @@
         <v>Red</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C39" s="9">
         <v>37</v>
@@ -1748,7 +1769,7 @@
         <v>Red</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C40" s="10">
         <v>38</v>
@@ -1778,7 +1799,7 @@
         <v>Red</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C41" s="9">
         <v>39</v>
@@ -1808,7 +1829,7 @@
         <v>Red</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C42" s="9">
         <v>40</v>
@@ -1838,7 +1859,7 @@
         <v>Red</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C43" s="10">
         <v>41</v>
@@ -1868,7 +1889,7 @@
         <v>Red</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C44" s="9">
         <v>42</v>
@@ -1898,7 +1919,7 @@
         <v>Red</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C45" s="9">
         <v>43</v>
@@ -1928,7 +1949,7 @@
         <v>Red</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C46" s="10">
         <v>44</v>
@@ -1958,7 +1979,7 @@
         <v>Red</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C47" s="9">
         <v>45</v>
@@ -1976,7 +1997,7 @@
         <v>-1</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I47" s="2">
         <v>-1</v>
@@ -1988,7 +2009,7 @@
         <v>Red</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C48" s="9">
         <v>46</v>
@@ -2018,7 +2039,7 @@
         <v>Red</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C49" s="10">
         <v>47</v>
@@ -2048,7 +2069,7 @@
         <v>Red</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C50" s="9">
         <v>48</v>
@@ -2066,7 +2087,7 @@
         <v>-1</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I50" s="2">
         <v>-1</v>
@@ -2078,7 +2099,7 @@
         <v>Red</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C51" s="9">
         <v>49</v>
@@ -2108,7 +2129,7 @@
         <v>Red</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C52" s="10">
         <v>50</v>
@@ -2138,7 +2159,7 @@
         <v>Red</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C53" s="9">
         <v>51</v>
@@ -2168,7 +2189,7 @@
         <v>Red</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C54" s="9">
         <v>52</v>
@@ -2198,7 +2219,7 @@
         <v>Red</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C55" s="10">
         <v>53</v>
@@ -2228,7 +2249,7 @@
         <v>Red</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C56" s="9">
         <v>54</v>
@@ -2258,7 +2279,7 @@
         <v>Red</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C57" s="9">
         <v>55</v>
@@ -2288,7 +2309,7 @@
         <v>Red</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C58" s="10">
         <v>56</v>
@@ -2318,7 +2339,7 @@
         <v>Red</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C59" s="9">
         <v>57</v>
@@ -2348,7 +2369,7 @@
         <v>Red</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C60" s="9">
         <v>58</v>
@@ -2378,7 +2399,7 @@
         <v>Red</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C61" s="10">
         <v>59</v>
@@ -2408,7 +2429,7 @@
         <v>Red</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C62" s="9">
         <v>60</v>
@@ -2426,7 +2447,7 @@
         <v>-1</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I62" s="2">
         <v>-1</v>
@@ -2438,7 +2459,7 @@
         <v>Red</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C63" s="9">
         <v>61</v>
@@ -2468,7 +2489,7 @@
         <v>Red</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C64" s="10">
         <v>62</v>
@@ -2498,7 +2519,7 @@
         <v>Red</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C65" s="9">
         <v>63</v>
@@ -2528,7 +2549,7 @@
         <v>Red</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C66" s="9">
         <v>64</v>
@@ -2558,7 +2579,7 @@
         <v>Red</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C67" s="10">
         <v>65</v>
@@ -2588,7 +2609,7 @@
         <v>Red</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C68" s="9">
         <v>66</v>
@@ -2618,7 +2639,7 @@
         <v>Red</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C69" s="9">
         <v>67</v>
@@ -2648,7 +2669,7 @@
         <v>Red</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C70" s="10">
         <v>68</v>
@@ -2678,7 +2699,7 @@
         <v>Red</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C71" s="9">
         <v>69</v>
@@ -2708,7 +2729,7 @@
         <v>Red</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C72" s="9">
         <v>70</v>
@@ -2738,7 +2759,7 @@
         <v>Red</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C73" s="10">
         <v>71</v>
@@ -2768,7 +2789,7 @@
         <v>Red</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C74" s="9">
         <v>72</v>
@@ -2798,7 +2819,7 @@
         <v>Red</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C75" s="9">
         <v>73</v>
@@ -2828,7 +2849,7 @@
         <v>Red</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C76" s="10">
         <v>74</v>
@@ -2858,7 +2879,7 @@
         <v>Red</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C77" s="9">
         <v>75</v>
@@ -2888,7 +2909,7 @@
         <v>Red</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C78" s="9">
         <v>76</v>
@@ -2999,6 +3020,7 @@
       <c r="C152" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/CTC_App/Iteration3/Track_Layout_Red.xlsx
+++ b/CTC_App/Iteration3/Track_Layout_Red.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasse\Desktop\ECE1140\Team_X_ECE_1140\CTC_App\Iteration3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AB8D9E-0A6F-425E-ABC9-1DA0C0B8066E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FF1A04-2962-40CF-A72A-E4D256C9018C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20472" yWindow="-36" windowWidth="4572" windowHeight="11748" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Red Line" sheetId="1" r:id="rId1"/>
@@ -243,10 +243,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -578,25 +578,25 @@
   <dimension ref="A1:AMF152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="B18:G18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="31" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="2" customWidth="1"/>
-    <col min="11" max="1020" width="8.6640625" style="2"/>
+    <col min="9" max="9" width="17.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="2" customWidth="1"/>
+    <col min="11" max="1020" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -625,7 +625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -654,7 +654,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>28</v>
       </c>
@@ -676,14 +676,14 @@
       <c r="G3" s="1">
         <v>-1</v>
       </c>
-      <c r="H3" s="1">
-        <v>-1</v>
+      <c r="H3" s="10">
+        <v>1</v>
       </c>
       <c r="I3" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="str">
         <f>A3</f>
         <v>Red</v>
@@ -706,14 +706,14 @@
       <c r="G4" s="1">
         <v>-1</v>
       </c>
-      <c r="H4" s="1">
-        <v>-1</v>
+      <c r="H4" s="9">
+        <v>2</v>
       </c>
       <c r="I4" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="str">
         <f t="shared" ref="A5:A68" si="0">A4</f>
         <v>Red</v>
@@ -736,14 +736,14 @@
       <c r="G5" s="1">
         <v>-1</v>
       </c>
-      <c r="H5" s="1">
-        <v>-1</v>
+      <c r="H5" s="9">
+        <v>3</v>
       </c>
       <c r="I5" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -766,14 +766,14 @@
       <c r="G6" s="1">
         <v>-1</v>
       </c>
-      <c r="H6" s="1">
-        <v>-1</v>
+      <c r="H6" s="10">
+        <v>4</v>
       </c>
       <c r="I6" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -796,14 +796,14 @@
       <c r="G7" s="1">
         <v>-1</v>
       </c>
-      <c r="H7" s="1">
-        <v>-1</v>
+      <c r="H7" s="9">
+        <v>5</v>
       </c>
       <c r="I7" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -826,14 +826,14 @@
       <c r="G8" s="1">
         <v>-1</v>
       </c>
-      <c r="H8" s="1">
-        <v>-1</v>
+      <c r="H8" s="9">
+        <v>6</v>
       </c>
       <c r="I8" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -863,7 +863,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -886,14 +886,14 @@
       <c r="G10" s="1">
         <v>-1</v>
       </c>
-      <c r="H10" s="1">
-        <v>-1</v>
+      <c r="H10" s="9">
+        <v>8</v>
       </c>
       <c r="I10" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -916,14 +916,14 @@
       <c r="G11" s="1">
         <v>10</v>
       </c>
-      <c r="H11" s="1">
-        <v>-1</v>
+      <c r="H11" s="9">
+        <v>9</v>
       </c>
       <c r="I11" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -946,14 +946,14 @@
       <c r="G12" s="1">
         <v>-1</v>
       </c>
-      <c r="H12" s="1">
-        <v>-1</v>
+      <c r="H12" s="10">
+        <v>10</v>
       </c>
       <c r="I12" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -976,14 +976,14 @@
       <c r="G13" s="1">
         <v>-1</v>
       </c>
-      <c r="H13" s="1">
-        <v>-1</v>
+      <c r="H13" s="9">
+        <v>11</v>
       </c>
       <c r="I13" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -1006,14 +1006,14 @@
       <c r="G14" s="1">
         <v>-1</v>
       </c>
-      <c r="H14" s="1">
-        <v>-1</v>
+      <c r="H14" s="10">
+        <v>12</v>
       </c>
       <c r="I14" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -1036,14 +1036,14 @@
       <c r="G15" s="1">
         <v>-1</v>
       </c>
-      <c r="H15" s="1">
-        <v>-1</v>
+      <c r="H15" s="9">
+        <v>13</v>
       </c>
       <c r="I15" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -1066,14 +1066,14 @@
       <c r="G16" s="1">
         <v>-1</v>
       </c>
-      <c r="H16" s="1">
-        <v>-1</v>
+      <c r="H16" s="9">
+        <v>14</v>
       </c>
       <c r="I16" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -1096,14 +1096,14 @@
       <c r="G17" s="1">
         <v>-1</v>
       </c>
-      <c r="H17" s="1">
-        <v>-1</v>
+      <c r="H17" s="10">
+        <v>15</v>
       </c>
       <c r="I17" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -1133,7 +1133,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -1156,14 +1156,14 @@
       <c r="G19" s="1">
         <v>-1</v>
       </c>
-      <c r="H19" s="1">
-        <v>-1</v>
+      <c r="H19" s="10">
+        <v>17</v>
       </c>
       <c r="I19" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -1186,14 +1186,14 @@
       <c r="G20" s="1">
         <v>-1</v>
       </c>
-      <c r="H20" s="1">
-        <v>-1</v>
+      <c r="H20" s="9">
+        <v>18</v>
       </c>
       <c r="I20" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -1216,14 +1216,14 @@
       <c r="G21" s="1">
         <v>-1</v>
       </c>
-      <c r="H21" s="1">
-        <v>-1</v>
+      <c r="H21" s="9">
+        <v>19</v>
       </c>
       <c r="I21" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -1246,14 +1246,14 @@
       <c r="G22" s="1">
         <v>-1</v>
       </c>
-      <c r="H22" s="1">
-        <v>-1</v>
+      <c r="H22" s="10">
+        <v>20</v>
       </c>
       <c r="I22" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -1283,7 +1283,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -1306,14 +1306,14 @@
       <c r="G24" s="1">
         <v>-1</v>
       </c>
-      <c r="H24" s="1">
-        <v>-1</v>
+      <c r="H24" s="10">
+        <v>22</v>
       </c>
       <c r="I24" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -1336,14 +1336,14 @@
       <c r="G25" s="1">
         <v>-1</v>
       </c>
-      <c r="H25" s="1">
-        <v>-1</v>
+      <c r="H25" s="9">
+        <v>23</v>
       </c>
       <c r="I25" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -1366,14 +1366,14 @@
       <c r="G26" s="1">
         <v>-1</v>
       </c>
-      <c r="H26" s="1">
-        <v>-1</v>
+      <c r="H26" s="9">
+        <v>24</v>
       </c>
       <c r="I26" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -1403,7 +1403,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -1426,14 +1426,14 @@
       <c r="G28" s="1">
         <v>-1</v>
       </c>
-      <c r="H28" s="1">
-        <v>-1</v>
+      <c r="H28" s="9">
+        <v>26</v>
       </c>
       <c r="I28" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -1456,14 +1456,14 @@
       <c r="G29" s="1">
         <v>76</v>
       </c>
-      <c r="H29" s="1">
-        <v>-1</v>
+      <c r="H29" s="10">
+        <v>27</v>
       </c>
       <c r="I29" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -1486,14 +1486,14 @@
       <c r="G30" s="1">
         <v>-1</v>
       </c>
-      <c r="H30" s="1">
-        <v>-1</v>
+      <c r="H30" s="9">
+        <v>28</v>
       </c>
       <c r="I30" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -1516,14 +1516,14 @@
       <c r="G31" s="1">
         <v>-1</v>
       </c>
-      <c r="H31" s="1">
-        <v>-1</v>
+      <c r="H31" s="9">
+        <v>29</v>
       </c>
       <c r="I31" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -1546,14 +1546,14 @@
       <c r="G32" s="1">
         <v>-1</v>
       </c>
-      <c r="H32" s="1">
-        <v>-1</v>
+      <c r="H32" s="10">
+        <v>30</v>
       </c>
       <c r="I32" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -1576,14 +1576,14 @@
       <c r="G33" s="1">
         <v>-1</v>
       </c>
-      <c r="H33" s="1">
-        <v>-1</v>
+      <c r="H33" s="9">
+        <v>31</v>
       </c>
       <c r="I33" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -1606,14 +1606,14 @@
       <c r="G34" s="1">
         <v>-1</v>
       </c>
-      <c r="H34" s="1">
-        <v>-1</v>
+      <c r="H34" s="10">
+        <v>32</v>
       </c>
       <c r="I34" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -1636,14 +1636,14 @@
       <c r="G35" s="1">
         <v>72</v>
       </c>
-      <c r="H35" s="1">
-        <v>-1</v>
+      <c r="H35" s="9">
+        <v>33</v>
       </c>
       <c r="I35" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -1666,14 +1666,14 @@
       <c r="G36" s="1">
         <v>-1</v>
       </c>
-      <c r="H36" s="1">
-        <v>-1</v>
+      <c r="H36" s="9">
+        <v>34</v>
       </c>
       <c r="I36" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -1703,7 +1703,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -1726,14 +1726,14 @@
       <c r="G38" s="1">
         <v>-1</v>
       </c>
-      <c r="H38" s="1">
-        <v>-1</v>
+      <c r="H38" s="9">
+        <v>36</v>
       </c>
       <c r="I38" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="str">
         <f>A35</f>
         <v>Red</v>
@@ -1756,14 +1756,14 @@
       <c r="G39" s="1">
         <v>-1</v>
       </c>
-      <c r="H39" s="1">
-        <v>-1</v>
+      <c r="H39" s="9">
+        <v>37</v>
       </c>
       <c r="I39" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -1786,14 +1786,14 @@
       <c r="G40" s="1">
         <v>71</v>
       </c>
-      <c r="H40" s="1">
-        <v>-1</v>
+      <c r="H40" s="10">
+        <v>38</v>
       </c>
       <c r="I40" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -1816,14 +1816,14 @@
       <c r="G41" s="1">
         <v>-1</v>
       </c>
-      <c r="H41" s="1">
-        <v>-1</v>
+      <c r="H41" s="9">
+        <v>39</v>
       </c>
       <c r="I41" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -1846,14 +1846,14 @@
       <c r="G42" s="1">
         <v>-1</v>
       </c>
-      <c r="H42" s="1">
-        <v>-1</v>
+      <c r="H42" s="9">
+        <v>40</v>
       </c>
       <c r="I42" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -1876,14 +1876,14 @@
       <c r="G43" s="1">
         <v>-1</v>
       </c>
-      <c r="H43" s="1">
-        <v>-1</v>
+      <c r="H43" s="10">
+        <v>41</v>
       </c>
       <c r="I43" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -1906,14 +1906,14 @@
       <c r="G44" s="1">
         <v>-1</v>
       </c>
-      <c r="H44" s="1">
-        <v>-1</v>
+      <c r="H44" s="9">
+        <v>42</v>
       </c>
       <c r="I44" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -1936,14 +1936,14 @@
       <c r="G45" s="1">
         <v>-1</v>
       </c>
-      <c r="H45" s="1">
-        <v>-1</v>
+      <c r="H45" s="9">
+        <v>43</v>
       </c>
       <c r="I45" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -1966,14 +1966,14 @@
       <c r="G46" s="1">
         <v>67</v>
       </c>
-      <c r="H46" s="1">
-        <v>-1</v>
+      <c r="H46" s="10">
+        <v>44</v>
       </c>
       <c r="I46" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -2003,7 +2003,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -2026,14 +2026,14 @@
       <c r="G48" s="1">
         <v>-1</v>
       </c>
-      <c r="H48" s="1">
-        <v>-1</v>
+      <c r="H48" s="9">
+        <v>46</v>
       </c>
       <c r="I48" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -2056,14 +2056,14 @@
       <c r="G49" s="1">
         <v>-1</v>
       </c>
-      <c r="H49" s="1">
-        <v>-1</v>
+      <c r="H49" s="10">
+        <v>47</v>
       </c>
       <c r="I49" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -2093,7 +2093,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -2116,14 +2116,14 @@
       <c r="G51" s="1">
         <v>-1</v>
       </c>
-      <c r="H51" s="1">
-        <v>-1</v>
+      <c r="H51" s="9">
+        <v>49</v>
       </c>
       <c r="I51" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -2146,14 +2146,14 @@
       <c r="G52" s="1">
         <v>-1</v>
       </c>
-      <c r="H52" s="1">
-        <v>-1</v>
+      <c r="H52" s="10">
+        <v>50</v>
       </c>
       <c r="I52" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -2176,14 +2176,14 @@
       <c r="G53" s="1">
         <v>-1</v>
       </c>
-      <c r="H53" s="1">
-        <v>-1</v>
+      <c r="H53" s="9">
+        <v>51</v>
       </c>
       <c r="I53" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -2206,14 +2206,14 @@
       <c r="G54" s="1">
         <v>66</v>
       </c>
-      <c r="H54" s="1">
-        <v>-1</v>
+      <c r="H54" s="9">
+        <v>52</v>
       </c>
       <c r="I54" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -2236,14 +2236,14 @@
       <c r="G55" s="1">
         <v>-1</v>
       </c>
-      <c r="H55" s="1">
-        <v>-1</v>
+      <c r="H55" s="10">
+        <v>53</v>
       </c>
       <c r="I55" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -2266,14 +2266,14 @@
       <c r="G56" s="1">
         <v>-1</v>
       </c>
-      <c r="H56" s="1">
-        <v>-1</v>
+      <c r="H56" s="9">
+        <v>54</v>
       </c>
       <c r="I56" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -2296,14 +2296,14 @@
       <c r="G57" s="1">
         <v>-1</v>
       </c>
-      <c r="H57" s="1">
-        <v>-1</v>
+      <c r="H57" s="9">
+        <v>55</v>
       </c>
       <c r="I57" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -2326,14 +2326,14 @@
       <c r="G58" s="1">
         <v>-1</v>
       </c>
-      <c r="H58" s="1">
-        <v>-1</v>
+      <c r="H58" s="10">
+        <v>56</v>
       </c>
       <c r="I58" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -2356,14 +2356,14 @@
       <c r="G59" s="1">
         <v>-1</v>
       </c>
-      <c r="H59" s="1">
-        <v>-1</v>
+      <c r="H59" s="9">
+        <v>57</v>
       </c>
       <c r="I59" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -2386,14 +2386,14 @@
       <c r="G60" s="1">
         <v>-1</v>
       </c>
-      <c r="H60" s="1">
-        <v>-1</v>
+      <c r="H60" s="9">
+        <v>58</v>
       </c>
       <c r="I60" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -2416,14 +2416,14 @@
       <c r="G61" s="1">
         <v>-1</v>
       </c>
-      <c r="H61" s="1">
-        <v>-1</v>
+      <c r="H61" s="10">
+        <v>59</v>
       </c>
       <c r="I61" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -2453,7 +2453,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -2476,14 +2476,14 @@
       <c r="G63" s="1">
         <v>-1</v>
       </c>
-      <c r="H63" s="1">
-        <v>-1</v>
+      <c r="H63" s="9">
+        <v>61</v>
       </c>
       <c r="I63" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -2506,14 +2506,14 @@
       <c r="G64" s="1">
         <v>-1</v>
       </c>
-      <c r="H64" s="1">
-        <v>-1</v>
+      <c r="H64" s="10">
+        <v>62</v>
       </c>
       <c r="I64" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -2536,14 +2536,14 @@
       <c r="G65" s="1">
         <v>-1</v>
       </c>
-      <c r="H65" s="1">
-        <v>-1</v>
+      <c r="H65" s="9">
+        <v>63</v>
       </c>
       <c r="I65" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -2566,14 +2566,14 @@
       <c r="G66" s="1">
         <v>-1</v>
       </c>
-      <c r="H66" s="1">
-        <v>-1</v>
+      <c r="H66" s="9">
+        <v>64</v>
       </c>
       <c r="I66" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -2596,14 +2596,14 @@
       <c r="G67" s="1">
         <v>-1</v>
       </c>
-      <c r="H67" s="1">
-        <v>-1</v>
+      <c r="H67" s="10">
+        <v>65</v>
       </c>
       <c r="I67" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
@@ -2626,14 +2626,14 @@
       <c r="G68" s="1">
         <v>-1</v>
       </c>
-      <c r="H68" s="1">
-        <v>-1</v>
+      <c r="H68" s="9">
+        <v>66</v>
       </c>
       <c r="I68" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="str">
         <f t="shared" ref="A69:A78" si="1">A68</f>
         <v>Red</v>
@@ -2656,14 +2656,14 @@
       <c r="G69" s="1">
         <v>-1</v>
       </c>
-      <c r="H69" s="1">
-        <v>-1</v>
+      <c r="H69" s="9">
+        <v>67</v>
       </c>
       <c r="I69" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2686,14 +2686,14 @@
       <c r="G70" s="1">
         <v>-1</v>
       </c>
-      <c r="H70" s="1">
-        <v>-1</v>
+      <c r="H70" s="10">
+        <v>68</v>
       </c>
       <c r="I70" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2716,14 +2716,14 @@
       <c r="G71" s="1">
         <v>-1</v>
       </c>
-      <c r="H71" s="1">
-        <v>-1</v>
+      <c r="H71" s="9">
+        <v>69</v>
       </c>
       <c r="I71" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2746,14 +2746,14 @@
       <c r="G72" s="1">
         <v>-1</v>
       </c>
-      <c r="H72" s="1">
-        <v>-1</v>
+      <c r="H72" s="9">
+        <v>70</v>
       </c>
       <c r="I72" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2776,14 +2776,14 @@
       <c r="G73" s="1">
         <v>-1</v>
       </c>
-      <c r="H73" s="1">
-        <v>-1</v>
+      <c r="H73" s="10">
+        <v>71</v>
       </c>
       <c r="I73" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2806,14 +2806,14 @@
       <c r="G74" s="1">
         <v>-1</v>
       </c>
-      <c r="H74" s="1">
-        <v>-1</v>
+      <c r="H74" s="9">
+        <v>72</v>
       </c>
       <c r="I74" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2836,14 +2836,14 @@
       <c r="G75" s="1">
         <v>-1</v>
       </c>
-      <c r="H75" s="1">
-        <v>-1</v>
+      <c r="H75" s="9">
+        <v>73</v>
       </c>
       <c r="I75" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2866,14 +2866,14 @@
       <c r="G76" s="1">
         <v>-1</v>
       </c>
-      <c r="H76" s="1">
-        <v>-1</v>
+      <c r="H76" s="10">
+        <v>74</v>
       </c>
       <c r="I76" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2896,14 +2896,14 @@
       <c r="G77" s="1">
         <v>-1</v>
       </c>
-      <c r="H77" s="1">
-        <v>-1</v>
+      <c r="H77" s="9">
+        <v>75</v>
       </c>
       <c r="I77" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2926,97 +2926,97 @@
       <c r="G78" s="1">
         <v>-1</v>
       </c>
-      <c r="H78" s="1">
-        <v>-1</v>
+      <c r="H78" s="9">
+        <v>76</v>
       </c>
       <c r="I78" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H79" s="8"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C80" s="7"/>
     </row>
-    <row r="83" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H83" s="8"/>
     </row>
-    <row r="84" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C84" s="7"/>
     </row>
-    <row r="88" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C88" s="7"/>
     </row>
-    <row r="90" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H90" s="8"/>
     </row>
-    <row r="91" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H91" s="8"/>
     </row>
-    <row r="92" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C92" s="7"/>
     </row>
-    <row r="96" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C96" s="7"/>
     </row>
-    <row r="98" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H98" s="8"/>
     </row>
-    <row r="99" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H99" s="8"/>
     </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C100" s="7"/>
     </row>
-    <row r="104" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C104" s="7"/>
     </row>
-    <row r="108" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C108" s="7"/>
       <c r="H108" s="8"/>
     </row>
-    <row r="112" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C112" s="7"/>
     </row>
-    <row r="116" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C116" s="7"/>
     </row>
-    <row r="117" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H117" s="8"/>
     </row>
-    <row r="120" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C120" s="7"/>
     </row>
-    <row r="124" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C124" s="7"/>
     </row>
-    <row r="126" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H126" s="8"/>
     </row>
-    <row r="128" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C128" s="7"/>
     </row>
-    <row r="132" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C132" s="7"/>
     </row>
-    <row r="135" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H135" s="8"/>
     </row>
-    <row r="136" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C136" s="7"/>
     </row>
-    <row r="140" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C140" s="7"/>
     </row>
-    <row r="144" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C144" s="7"/>
       <c r="H144" s="8"/>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C148" s="7"/>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C152" s="7"/>
     </row>
   </sheetData>
